--- a/stock/stock.xlsx
+++ b/stock/stock.xlsx
@@ -1,248 +1,559 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\daily_python\tensor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E3E000-A1E8-41A0-8B85-668791EC6150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+  <si>
+    <t>板块：光学光电子=1，食品加工制造=2，传媒=3，汽车零部件=4，电子制造=5，建筑装饰=6，综合=7，通用/专用设备=8，计算机应用=9，家用轻工=10，环保工程=11，电气设备=12，化学制品=13</t>
+  </si>
   <si>
     <t>股票代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>股票名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总股本</t>
+  </si>
+  <si>
+    <t>最高市值</t>
   </si>
   <si>
     <t>净利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每股收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高市值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总股本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>利润增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板块</t>
+  </si>
+  <si>
+    <t>开板最低</t>
+  </si>
+  <si>
+    <t>开板一高</t>
   </si>
   <si>
     <t>002962</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五方光电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>300790</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宇瞳光学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>300791</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>仙乐健康</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>300792</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>壹网壹创</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>603786</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>科博达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>300793</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>佳禾智能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>603815</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>交建股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>300795</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>米奥兰特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渝农商行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>002965</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>祥鑫科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>002963</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>豪尔赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>300799</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>左江科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待更新</t>
   </si>
   <si>
     <t>603610</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>麒盛科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>300800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>力合科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>300564</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>筑博设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>603489</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>八方股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板块：光学光电子=1，食品加工制造=2，传媒=3，汽车零部件=4，电子制造=5，建筑装饰=6，银行=7，通用设备=8，计算机应用=9，家用轻工=10，环保工程=11，电气设备=12，化学制品=13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>300796</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贝斯美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002967</t>
+  </si>
+  <si>
+    <t>广电计量</t>
+  </si>
+  <si>
+    <t>300797</t>
+  </si>
+  <si>
+    <t>钢研纳克</t>
+  </si>
+  <si>
+    <t>300798</t>
+  </si>
+  <si>
+    <t>锦鸡股份</t>
+  </si>
+  <si>
+    <t>300802</t>
+  </si>
+  <si>
+    <t>矩子科技</t>
+  </si>
+  <si>
+    <t>300803</t>
+  </si>
+  <si>
+    <t>指南针</t>
+  </si>
+  <si>
+    <t>300805</t>
+  </si>
+  <si>
+    <t>电声股份</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -250,30 +561,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -322,7 +920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -357,7 +955,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -531,89 +1129,90 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.88333333333333" style="2"/>
+    <col min="3" max="3" width="8.88333333333333" style="3"/>
+    <col min="5" max="5" width="9.25" style="4"/>
+    <col min="7" max="7" width="8.88333333333333" style="5"/>
+    <col min="9" max="9" width="12.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
         <v>46.99</v>
       </c>
       <c r="D3">
         <v>2.02</v>
       </c>
-      <c r="E3" s="2">
-        <f>C3*D3</f>
-        <v>94.919800000000009</v>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>94.9198</v>
       </c>
       <c r="F3">
         <v>1.22</v>
       </c>
-      <c r="G3" s="3">
-        <f>F3/D3</f>
-        <v>0.60396039603960394</v>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G10" si="1">F3/D3</f>
+        <v>0.603960396039604</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -621,30 +1220,36 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+      <c r="J3">
+        <v>37.5</v>
+      </c>
+      <c r="K3">
+        <v>44.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
         <v>47.5</v>
       </c>
       <c r="D4">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E19" si="0">C4*D4</f>
+        <v>1.14</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
         <v>54.15</v>
       </c>
       <c r="F4">
         <v>0.71</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G19" si="1">F4/D4</f>
-        <v>0.6228070175438597</v>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.62280701754386</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -652,30 +1257,36 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+      <c r="J4">
+        <v>38.39</v>
+      </c>
+      <c r="K4">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3">
         <v>95.36</v>
       </c>
       <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>76.287999999999997</v>
+        <v>76.288</v>
       </c>
       <c r="F5">
         <v>1.19</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>1.4874999999999998</v>
+        <v>1.4875</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -683,28 +1294,34 @@
       <c r="I5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
+      <c r="J5">
+        <v>69.54</v>
+      </c>
+      <c r="K5">
+        <v>73.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
         <v>199.96</v>
       </c>
       <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>159.96800000000002</v>
+        <v>159.968</v>
       </c>
       <c r="F6">
         <v>0.96</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
@@ -714,30 +1331,36 @@
       <c r="I6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
+      <c r="J6">
+        <v>154.04</v>
+      </c>
+      <c r="K6">
+        <v>184.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
         <v>52</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="F7">
         <v>3.21</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>0.80249999999999999</v>
+        <v>0.8025</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -745,30 +1368,36 @@
       <c r="I7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
+      <c r="J7">
+        <v>37.95</v>
+      </c>
+      <c r="K7">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4">
-        <v>73.5</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>72.83</v>
       </c>
       <c r="D8">
         <v>1.67</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>122.74499999999999</v>
+        <v>121.6261</v>
       </c>
       <c r="F8">
         <v>0.98</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>0.58682634730538918</v>
+        <v>0.586826347305389</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -776,30 +1405,36 @@
       <c r="I8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
+      <c r="J8">
+        <v>62.09</v>
+      </c>
+      <c r="K8">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4">
-        <v>24.31</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>19.2</v>
       </c>
       <c r="D9">
         <v>4.99</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>121.3069</v>
+        <v>95.808</v>
       </c>
       <c r="F9">
         <v>0.51</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>0.10220440881763526</v>
+        <v>0.102204408817635</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -807,28 +1442,34 @@
       <c r="I9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
+      <c r="J9">
+        <v>17.53</v>
+      </c>
+      <c r="K9">
+        <v>24.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3">
         <v>40.06</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>40.06</v>
       </c>
       <c r="F10">
         <v>0.26</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
@@ -838,292 +1479,506 @@
       <c r="I10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
+      <c r="J10">
+        <v>33.11</v>
+      </c>
+      <c r="K10">
+        <v>39.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10.06</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>41.93</v>
       </c>
       <c r="D11">
-        <v>113.57</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>1142.5142000000001</v>
+        <v>1.51</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" ref="E11:E30" si="2">C11*D11</f>
+        <v>63.3143</v>
       </c>
       <c r="F11">
-        <v>86.28</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.75970766927885891</v>
+        <v>1.17</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" ref="G11:G30" si="3">F11/D11</f>
+        <v>0.774834437086093</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>32.23</v>
+      </c>
+      <c r="K11">
+        <v>38.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45.35</v>
+      </c>
+      <c r="D12">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="2"/>
+        <v>68.025</v>
+      </c>
+      <c r="F12">
+        <v>2.04</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>1.36</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>35.12</v>
+      </c>
+      <c r="K12">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3">
+        <v>156.5</v>
+      </c>
+      <c r="D13">
+        <v>0.68</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="2"/>
+        <v>106.42</v>
+      </c>
+      <c r="F13">
+        <v>0.23</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.338235294117647</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>116.8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3">
+        <v>64.31</v>
+      </c>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="2"/>
+        <v>96.465</v>
+      </c>
+      <c r="F14">
+        <v>2.72</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>1.81333333333333</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>45.7</v>
+      </c>
+      <c r="K14">
+        <v>49.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3">
+        <v>97.05</v>
+      </c>
+      <c r="D15">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>77.64</v>
+      </c>
+      <c r="F15">
+        <v>1.77</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2125</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>73.13</v>
+      </c>
+      <c r="K15">
+        <v>79.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F16">
+        <v>0.95</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>37.77</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
+        <v>104.95</v>
+      </c>
+      <c r="D17">
+        <v>1.2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="2"/>
+        <v>125.94</v>
+      </c>
+      <c r="F17">
+        <v>2.39</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="3"/>
+        <v>1.99166666666667</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>86.68</v>
+      </c>
+      <c r="L17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3">
+        <v>34.21</v>
+      </c>
+      <c r="D18">
+        <v>1.21</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="2"/>
+        <v>41.3941</v>
+      </c>
+      <c r="F18">
+        <v>0.52</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>0.429752066115702</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>25.74</v>
+      </c>
+      <c r="L18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3">
+        <v>30.58</v>
+      </c>
+      <c r="D19">
+        <v>3.31</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>101.2198</v>
+      </c>
+      <c r="F19">
+        <v>0.7</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="3"/>
+        <v>0.211480362537764</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4">
-        <v>41.93</v>
-      </c>
-      <c r="D12">
-        <v>1.51</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>63.314300000000003</v>
-      </c>
-      <c r="F12">
-        <v>1.17</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.77483443708609268</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="J19">
+        <v>26.95</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3">
+        <v>29.77</v>
+      </c>
+      <c r="D20">
+        <v>2.48</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="2"/>
+        <v>73.8296</v>
+      </c>
+      <c r="F20">
+        <v>0.52</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="3"/>
+        <v>0.209677419354839</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>22.27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="7">
+        <v>22.0534</v>
+      </c>
+      <c r="D21">
+        <v>4.18</v>
+      </c>
+      <c r="F21">
+        <v>0.88</v>
+      </c>
+      <c r="G21" s="5">
+        <f>F21/D21</f>
+        <v>0.210526315789474</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="7">
+        <v>31.766</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.66</v>
+      </c>
+      <c r="G22" s="5">
+        <f>F22/D22</f>
+        <v>0.66</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4">
-        <v>45.35</v>
-      </c>
-      <c r="D13">
-        <v>1.5</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>68.025000000000006</v>
-      </c>
-      <c r="F13">
-        <v>2.04</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="1"/>
-        <v>1.36</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="4">
-        <v>156.5</v>
-      </c>
-      <c r="D14">
-        <v>0.68</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>106.42</v>
-      </c>
-      <c r="F14">
-        <v>0.23</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.33823529411764702</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="7">
+        <v>104.81</v>
+      </c>
+      <c r="D23">
+        <v>4.05</v>
+      </c>
+      <c r="F23">
+        <v>1.26</v>
+      </c>
+      <c r="G23" s="5">
+        <f>F23/D23</f>
+        <v>0.311111111111111</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="L23" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="4">
-        <v>64.31</v>
-      </c>
-      <c r="D15">
-        <v>1.5</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>96.465000000000003</v>
-      </c>
-      <c r="F15">
-        <v>2.72</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8133333333333335</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4">
-        <v>97.05</v>
-      </c>
-      <c r="D16">
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>77.64</v>
-      </c>
-      <c r="F16">
-        <v>1.77</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2124999999999999</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4">
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="F17">
-        <v>0.95</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="4">
-        <v>104.95</v>
-      </c>
-      <c r="D18">
-        <v>1.2</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>125.94</v>
-      </c>
-      <c r="F18">
-        <v>2.39</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9916666666666669</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="4">
-        <v>34.21</v>
-      </c>
-      <c r="D19">
-        <v>1.21</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>41.394100000000002</v>
-      </c>
-      <c r="F19">
-        <v>0.52</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>0.42975206611570249</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>13</v>
+      <c r="C24" s="7">
+        <v>78.757</v>
+      </c>
+      <c r="D24">
+        <v>4.23</v>
+      </c>
+      <c r="F24">
+        <v>1.49</v>
+      </c>
+      <c r="G24" s="5">
+        <f>F24/D24</f>
+        <v>0.352245862884161</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/stock/stock.xlsx
+++ b/stock/stock.xlsx
@@ -1,34 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\daily_python\tensor\stock\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D72E28-437E-4F07-8A53-6948A29253A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+  <si>
+    <t>板块：光学光电子/电子制造=1，食品加工制造=2，传媒=3，汽车零部件=4，化学制品=5，建筑装饰/家用轻工=6，综合=7，通用/专用/电气/计算机设备=8，计算机应用=9，环保工程=10，包装印刷=11，房地产开发=12，=13</t>
+  </si>
   <si>
     <t>股票代码</t>
   </si>
@@ -57,6 +46,15 @@
     <t>板块</t>
   </si>
   <si>
+    <t>开板最低</t>
+  </si>
+  <si>
+    <t>开板一高</t>
+  </si>
+  <si>
+    <t>预测最高价</t>
+  </si>
+  <si>
     <t>002962</t>
   </si>
   <si>
@@ -117,204 +115,72 @@
     <t>豪尔赛</t>
   </si>
   <si>
+    <t>603610</t>
+  </si>
+  <si>
+    <t>麒盛科技</t>
+  </si>
+  <si>
+    <t>300800</t>
+  </si>
+  <si>
+    <t>力合科技</t>
+  </si>
+  <si>
+    <t>002967</t>
+  </si>
+  <si>
+    <t>广电计量</t>
+  </si>
+  <si>
+    <t>300564</t>
+  </si>
+  <si>
+    <t>筑博设计</t>
+  </si>
+  <si>
+    <t>603489</t>
+  </si>
+  <si>
+    <t>八方股份</t>
+  </si>
+  <si>
+    <t>待更新</t>
+  </si>
+  <si>
+    <t>300796</t>
+  </si>
+  <si>
+    <t>贝斯美</t>
+  </si>
+  <si>
     <t>300799</t>
   </si>
   <si>
     <t>左江科技</t>
   </si>
   <si>
-    <t>待更新</t>
-  </si>
-  <si>
-    <t>603610</t>
-  </si>
-  <si>
-    <t>麒盛科技</t>
-  </si>
-  <si>
-    <t>300800</t>
-  </si>
-  <si>
-    <t>力合科技</t>
-  </si>
-  <si>
-    <t>300564</t>
-  </si>
-  <si>
-    <t>筑博设计</t>
-  </si>
-  <si>
-    <t>603489</t>
-  </si>
-  <si>
-    <t>八方股份</t>
-  </si>
-  <si>
-    <t>300796</t>
-  </si>
-  <si>
-    <t>贝斯美</t>
-  </si>
-  <si>
-    <t>002967</t>
-  </si>
-  <si>
-    <t>广电计量</t>
-  </si>
-  <si>
     <t>300797</t>
   </si>
   <si>
     <t>钢研纳克</t>
   </si>
   <si>
-    <t>300798</t>
-  </si>
-  <si>
-    <t>锦鸡股份</t>
-  </si>
-  <si>
     <t>300802</t>
   </si>
   <si>
     <t>矩子科技</t>
   </si>
   <si>
-    <t>300803</t>
-  </si>
-  <si>
-    <t>指南针</t>
-  </si>
-  <si>
-    <t>300805</t>
-  </si>
-  <si>
-    <t>电声股份</t>
-  </si>
-  <si>
-    <t>开板最低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开板一高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>03390</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通达电气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测最高价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00806</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯迪克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00808</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>久量股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00801</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰和科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02969</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉美包装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>板块：光学光电子/电子制造=1，食品加工制造=2，传媒=3，汽车零部件=4，化学制品=5，建筑装饰/家用轻工=6，综合=7，通用/专用/电气/计算机</t>
     </r>
     <r>
       <rPr>
@@ -324,21 +190,151 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>设备=8，计算机应用=9，环保工程=10，包装印刷=11，=12，=13</t>
+      <t>00801</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰和科技</t>
+  </si>
+  <si>
+    <t>300805</t>
+  </si>
+  <si>
+    <t>电声股份</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03390</t>
+    </r>
+  </si>
+  <si>
+    <t>通达电气</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00806</t>
+    </r>
+  </si>
+  <si>
+    <t>斯迪克</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00808</t>
+    </r>
+  </si>
+  <si>
+    <t>久量股份</t>
+  </si>
+  <si>
+    <t>300798</t>
+  </si>
+  <si>
+    <t>锦鸡股份</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02969</t>
+    </r>
+  </si>
+  <si>
+    <t>嘉美包装</t>
+  </si>
+  <si>
+    <t>300803</t>
+  </si>
+  <si>
+    <t>指南针</t>
+  </si>
+  <si>
+    <t>002968</t>
+  </si>
+  <si>
+    <t>新大正</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,22 +343,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +507,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -386,49 +704,335 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -686,96 +1290,96 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="9.21875" style="3"/>
-    <col min="7" max="7" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88333333333333" style="2"/>
+    <col min="3" max="3" width="8.88333333333333" style="3"/>
+    <col min="5" max="5" width="9.21666666666667" style="4"/>
+    <col min="7" max="7" width="8.88333333333333" style="5"/>
+    <col min="9" max="9" width="12.775" customWidth="1"/>
+    <col min="10" max="10" width="11.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="10.775" customWidth="1"/>
+    <col min="13" max="13" width="10.775" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
         <v>46.99</v>
       </c>
       <c r="D3">
         <v>2.02</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E10" si="0">C3*D3</f>
-        <v>94.919800000000009</v>
+        <v>94.9198</v>
       </c>
       <c r="F3">
         <v>1.22</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G10" si="1">F3/D3</f>
-        <v>0.60396039603960394</v>
+        <v>0.603960396039604</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -790,29 +1394,29 @@
         <v>44.66</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
         <v>47.5</v>
       </c>
       <c r="D4">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E4" s="3">
+        <v>1.14</v>
+      </c>
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>54.15</v>
       </c>
       <c r="F4">
         <v>0.71</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>0.6228070175438597</v>
+        <v>0.62280701754386</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -827,29 +1431,29 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
         <v>95.36</v>
       </c>
       <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>76.287999999999997</v>
+        <v>76.288</v>
       </c>
       <c r="F5">
         <v>1.19</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>1.4874999999999998</v>
+        <v>1.4875</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -858,33 +1462,33 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>69.540000000000006</v>
+        <v>69.54</v>
       </c>
       <c r="K5">
         <v>73.59</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
         <v>199.96</v>
       </c>
       <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>159.96800000000002</v>
+        <v>159.968</v>
       </c>
       <c r="F6">
         <v>0.96</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
@@ -901,29 +1505,29 @@
         <v>184.68</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
         <v>52</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="F7">
         <v>3.21</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>0.80249999999999999</v>
+        <v>0.8025</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -932,35 +1536,35 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>37.950000000000003</v>
+        <v>37.95</v>
       </c>
       <c r="K7">
         <v>46.2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3">
         <v>72.83</v>
       </c>
       <c r="D8">
         <v>1.67</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>121.62609999999999</v>
+        <v>121.6261</v>
       </c>
       <c r="F8">
         <v>0.98</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>0.58682634730538918</v>
+        <v>0.586826347305389</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -975,29 +1579,29 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3">
         <v>19.2</v>
       </c>
       <c r="D9">
         <v>4.99</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>95.808000000000007</v>
+        <v>95.808</v>
       </c>
       <c r="F9">
         <v>0.51</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>0.10220440881763526</v>
+        <v>0.102204408817635</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1012,27 +1616,27 @@
         <v>24.31</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3">
         <v>40.06</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>40.06</v>
       </c>
       <c r="F10">
         <v>0.26</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
@@ -1046,32 +1650,32 @@
         <v>33.11</v>
       </c>
       <c r="K10">
-        <v>39.450000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>39.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
         <v>41.93</v>
       </c>
       <c r="D11">
         <v>1.51</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <f t="shared" ref="E11:E22" si="2">C11*D11</f>
-        <v>63.314300000000003</v>
+        <v>63.3143</v>
       </c>
       <c r="F11">
         <v>1.17</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <f t="shared" ref="G11:G20" si="3">F11/D11</f>
-        <v>0.77483443708609268</v>
+        <v>0.774834437086093</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1080,33 +1684,33 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>32.229999999999997</v>
+        <v>32.23</v>
       </c>
       <c r="K11">
-        <v>38.369999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>38.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3">
         <v>45.35</v>
       </c>
       <c r="D12">
         <v>1.5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <f t="shared" si="2"/>
-        <v>68.025000000000006</v>
+        <v>68.025</v>
       </c>
       <c r="F12">
         <v>2.04</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <f t="shared" si="3"/>
         <v>1.36</v>
       </c>
@@ -1117,35 +1721,35 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>35.119999999999997</v>
+        <v>35.12</v>
       </c>
       <c r="K12">
-        <v>38.299999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3">
         <v>64.31</v>
       </c>
       <c r="D13">
         <v>1.5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <f t="shared" si="2"/>
-        <v>96.465000000000003</v>
+        <v>96.465</v>
       </c>
       <c r="F13">
         <v>2.72</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <f t="shared" si="3"/>
-        <v>1.8133333333333335</v>
+        <v>1.81333333333333</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1160,29 +1764,29 @@
         <v>49.49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3">
         <v>97.05</v>
       </c>
       <c r="D14">
         <v>0.8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <f t="shared" si="2"/>
         <v>77.64</v>
       </c>
       <c r="F14">
         <v>1.77</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <f t="shared" si="3"/>
-        <v>2.2124999999999999</v>
+        <v>2.2125</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1197,29 +1801,29 @@
         <v>79.55</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3">
         <v>30.58</v>
       </c>
       <c r="D15">
         <v>3.31</v>
       </c>
-      <c r="E15" s="3">
-        <f>C15*D15</f>
-        <v>101.21979999999999</v>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>101.2198</v>
       </c>
       <c r="F15">
         <v>0.7</v>
       </c>
-      <c r="G15" s="4">
-        <f>F15/D15</f>
-        <v>0.21148036253776434</v>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.211480362537764</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1234,27 +1838,27 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="2">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3">
         <v>56</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="F16">
         <v>0.95</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
@@ -1265,35 +1869,35 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <v>37.770000000000003</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>37.77</v>
+      </c>
+      <c r="K16">
+        <v>40.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
         <v>104.95</v>
       </c>
       <c r="D17">
         <v>1.2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <f t="shared" si="2"/>
         <v>125.94</v>
       </c>
       <c r="F17">
         <v>2.39</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <f t="shared" si="3"/>
-        <v>1.9916666666666669</v>
+        <v>1.99166666666667</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1305,32 +1909,32 @@
         <v>81.34</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3">
         <v>34.21</v>
       </c>
       <c r="D18">
         <v>1.21</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <f t="shared" si="2"/>
-        <v>41.394100000000002</v>
+        <v>41.3941</v>
       </c>
       <c r="F18">
         <v>0.52</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <f t="shared" si="3"/>
-        <v>0.42975206611570249</v>
+        <v>0.429752066115702</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1338,36 +1942,34 @@
       <c r="I18">
         <v>5</v>
       </c>
-      <c r="J18">
-        <v>25.12</v>
-      </c>
+      <c r="J18"/>
       <c r="L18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3">
         <v>156.5</v>
       </c>
       <c r="D19">
         <v>0.68</v>
       </c>
-      <c r="E19" s="3">
-        <f>C19*D19</f>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
         <v>106.42</v>
       </c>
       <c r="F19">
         <v>0.23</v>
       </c>
-      <c r="G19" s="4">
-        <f>F19/D19</f>
-        <v>0.33823529411764702</v>
+      <c r="G19" s="5">
+        <f t="shared" si="3"/>
+        <v>0.338235294117647</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1376,35 +1978,35 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>116.8</v>
+        <v>109.55</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3">
         <v>29.77</v>
       </c>
       <c r="D20">
         <v>2.48</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <f t="shared" si="2"/>
-        <v>73.829599999999999</v>
+        <v>73.8296</v>
       </c>
       <c r="F20">
         <v>0.52</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
-        <v>0.20967741935483872</v>
+        <v>0.209677419354839</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1412,35 +2014,33 @@
       <c r="I20">
         <v>7</v>
       </c>
-      <c r="J20">
-        <v>22.27</v>
-      </c>
+      <c r="J20"/>
       <c r="L20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="8">
+        <v>51</v>
+      </c>
+      <c r="C21" s="7">
         <v>77.5</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="F21">
         <v>0.66</v>
       </c>
-      <c r="G21" s="4">
-        <f t="shared" ref="G21:G29" si="4">F21/D21</f>
+      <c r="G21" s="5">
+        <f>F21/D21</f>
         <v>0.66</v>
       </c>
       <c r="H21">
@@ -1449,36 +2049,34 @@
       <c r="I21">
         <v>8</v>
       </c>
-      <c r="J21">
-        <v>64.31</v>
-      </c>
+      <c r="J21"/>
       <c r="L21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3">
         <v>50.88</v>
       </c>
       <c r="D22">
         <v>1.2</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <f t="shared" si="2"/>
-        <v>61.055999999999997</v>
+        <v>61.056</v>
       </c>
       <c r="F22">
         <v>1.36</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <f>F22/D22</f>
-        <v>1.1333333333333335</v>
+        <v>1.13333333333333</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1486,30 +2084,37 @@
       <c r="I22">
         <v>5</v>
       </c>
+      <c r="J22"/>
       <c r="L22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="2">
-        <v>50.501399999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="M22" s="3">
+        <v>50.5014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="C23" s="7">
+        <v>30</v>
+      </c>
       <c r="D23">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
+      </c>
+      <c r="E23" s="4">
+        <f>C23*D23</f>
+        <v>126.9</v>
       </c>
       <c r="F23">
         <v>1.49</v>
       </c>
-      <c r="G23" s="4">
-        <f t="shared" si="4"/>
-        <v>0.35224586288416071</v>
+      <c r="G23" s="5">
+        <f>F23/D23</f>
+        <v>0.352245862884161</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1517,199 +2122,229 @@
       <c r="I23">
         <v>3</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="3">
+        <v>79.03414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M23" s="2">
-        <v>79.034139999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="8"/>
+      <c r="B24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="11">
+        <v>21.24</v>
+      </c>
       <c r="D24">
+        <v>3.52</v>
+      </c>
+      <c r="E24" s="4">
+        <f>C24*D24</f>
+        <v>74.7648</v>
+      </c>
+      <c r="F24">
+        <v>1.04</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" ref="G24:G29" si="4">F24/D24</f>
+        <v>0.295454545454545</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="3">
+        <v>31.3099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>1.17</v>
+      </c>
+      <c r="F25">
+        <v>0.7</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="4"/>
+        <v>0.598290598290598</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="3">
+        <v>21.0958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>1.6</v>
+      </c>
+      <c r="F26">
+        <v>0.69</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="4"/>
+        <v>0.43125</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="3">
+        <v>38.5489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27">
         <v>4.18</v>
       </c>
-      <c r="F24">
+      <c r="F27">
         <v>0.88</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G27" s="5">
+        <f>F27/D27</f>
+        <v>0.210526315789474</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="3">
+        <v>18.3592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>9.53</v>
+      </c>
+      <c r="F28">
+        <v>0.64</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="4"/>
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="L24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="2">
-        <v>18.359200000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25">
-        <v>3.52</v>
-      </c>
-      <c r="F25">
-        <v>1.04</v>
-      </c>
-      <c r="G25" s="4">
+        <v>0.0671563483735572</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29">
+        <v>4.05</v>
+      </c>
+      <c r="F29">
+        <v>1.26</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="4"/>
-        <v>0.29545454545454547</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>8</v>
-      </c>
-      <c r="L25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="2">
-        <v>31.309899999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26">
-        <v>1.17</v>
-      </c>
-      <c r="F26">
-        <v>0.7</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="4"/>
-        <v>0.59829059829059827</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="L26" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="2">
-        <v>21.095800000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27">
-        <v>1.6</v>
-      </c>
-      <c r="F27">
-        <v>0.69</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="4"/>
-        <v>0.43124999999999997</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="2">
-        <v>38.548900000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="F29">
-        <v>0.64</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="4"/>
-        <v>6.715634837355719E-2</v>
+        <v>0.311111111111111</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="M29" s="3">
+        <v>104.8942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="8"/>
+        <v>69</v>
+      </c>
       <c r="D30">
-        <v>4.05</v>
+        <v>0.72</v>
       </c>
       <c r="F30">
-        <v>1.26</v>
-      </c>
-      <c r="G30" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="G30" s="5">
         <f>F30/D30</f>
-        <v>0.31111111111111112</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>9</v>
-      </c>
-      <c r="L30" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="2">
-        <v>104.8942</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/stock/stock.xlsx
+++ b/stock/stock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>板块：光学光电子/电子制造=1，食品加工制造=2，传媒=3，汽车零部件=4，化学制品=5，建筑装饰/家用轻工=6，综合=7，通用/专用/电气/计算机设备=8，计算机应用=9，环保工程=10，包装印刷=11，房地产开发=12，=13</t>
   </si>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:XFD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
         <v>52</v>
       </c>
@@ -2088,11 +2088,8 @@
       <c r="L22" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="3">
-        <v>50.5014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
@@ -2125,11 +2122,8 @@
       <c r="L23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="3">
-        <v>79.03414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
@@ -2162,9 +2156,6 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="3">
-        <v>31.3099</v>
-      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="8" t="s">
@@ -2193,7 +2184,7 @@
         <v>43</v>
       </c>
       <c r="M25" s="3">
-        <v>21.0958</v>
+        <v>31.4983</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2223,7 +2214,7 @@
         <v>43</v>
       </c>
       <c r="M26" s="3">
-        <v>38.5489</v>
+        <v>38.5908</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2254,7 +2245,7 @@
         <v>43</v>
       </c>
       <c r="M27" s="3">
-        <v>18.3592</v>
+        <v>24.9838</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2312,10 +2303,10 @@
         <v>43</v>
       </c>
       <c r="M29" s="3">
-        <v>104.8942</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>105.012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
@@ -2337,6 +2328,9 @@
       </c>
       <c r="I30">
         <v>12</v>
+      </c>
+      <c r="L30" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/stock/stock.xlsx
+++ b/stock/stock.xlsx
@@ -1,15 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\daily_python\tensor\stock\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5C735C-1553-4711-8DB6-D4957871B735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -324,17 +338,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,151 +360,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,194 +380,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -717,322 +404,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1290,55 +691,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:XFD30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="2"/>
-    <col min="3" max="3" width="8.88333333333333" style="3"/>
-    <col min="5" max="5" width="9.21666666666667" style="4"/>
-    <col min="7" max="7" width="8.88333333333333" style="5"/>
-    <col min="9" max="9" width="12.775" customWidth="1"/>
-    <col min="10" max="10" width="11.1083333333333" customWidth="1"/>
-    <col min="11" max="11" width="10.775" customWidth="1"/>
-    <col min="13" max="13" width="10.775" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="9.21875" style="3"/>
+    <col min="7" max="7" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
@@ -1347,39 +748,39 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>46.99</v>
       </c>
       <c r="D3">
         <v>2.02</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E10" si="0">C3*D3</f>
-        <v>94.9198</v>
+        <v>94.919800000000009</v>
       </c>
       <c r="F3">
         <v>1.22</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f t="shared" ref="G3:G10" si="1">F3/D3</f>
-        <v>0.603960396039604</v>
+        <v>0.60396039603960394</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1394,29 +795,29 @@
         <v>44.66</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>47.5</v>
       </c>
       <c r="D4">
-        <v>1.14</v>
-      </c>
-      <c r="E4" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>54.15</v>
       </c>
       <c r="F4">
         <v>0.71</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>0.62280701754386</v>
+        <v>0.6228070175438597</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1431,29 +832,29 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>95.36</v>
       </c>
       <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>76.288</v>
+        <v>76.287999999999997</v>
       </c>
       <c r="F5">
         <v>1.19</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>1.4875</v>
+        <v>1.4874999999999998</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1462,33 +863,33 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>69.54</v>
+        <v>69.540000000000006</v>
       </c>
       <c r="K5">
         <v>73.59</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>199.96</v>
       </c>
       <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>159.968</v>
+        <v>159.96800000000002</v>
       </c>
       <c r="F6">
         <v>0.96</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
@@ -1505,29 +906,29 @@
         <v>184.68</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>52</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="F7">
         <v>3.21</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>0.8025</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1536,35 +937,35 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>37.95</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="K7">
         <v>46.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>72.83</v>
       </c>
       <c r="D8">
         <v>1.67</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>121.6261</v>
+        <v>121.62609999999999</v>
       </c>
       <c r="F8">
         <v>0.98</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>0.586826347305389</v>
+        <v>0.58682634730538918</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1579,29 +980,29 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>19.2</v>
       </c>
       <c r="D9">
         <v>4.99</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>95.808</v>
+        <v>95.808000000000007</v>
       </c>
       <c r="F9">
         <v>0.51</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>0.102204408817635</v>
+        <v>0.10220440881763526</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1616,27 +1017,27 @@
         <v>24.31</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>40.06</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>40.06</v>
       </c>
       <c r="F10">
         <v>0.26</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
@@ -1650,32 +1051,32 @@
         <v>33.11</v>
       </c>
       <c r="K10">
-        <v>39.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
+        <v>39.450000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>41.93</v>
       </c>
       <c r="D11">
         <v>1.51</v>
       </c>
-      <c r="E11" s="4">
-        <f t="shared" ref="E11:E22" si="2">C11*D11</f>
-        <v>63.3143</v>
+      <c r="E11" s="3">
+        <f t="shared" ref="E11:E21" si="2">C11*D11</f>
+        <v>63.314300000000003</v>
       </c>
       <c r="F11">
         <v>1.17</v>
       </c>
-      <c r="G11" s="5">
-        <f t="shared" ref="G11:G20" si="3">F11/D11</f>
-        <v>0.774834437086093</v>
+      <c r="G11" s="4">
+        <f t="shared" ref="G11:G19" si="3">F11/D11</f>
+        <v>0.77483443708609268</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1684,33 +1085,33 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>32.23</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="K11">
-        <v>38.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2" t="s">
+        <v>38.369999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>45.35</v>
       </c>
       <c r="D12">
         <v>1.5</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>68.025</v>
+        <v>68.025000000000006</v>
       </c>
       <c r="F12">
         <v>2.04</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f t="shared" si="3"/>
         <v>1.36</v>
       </c>
@@ -1721,35 +1122,35 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>35.12</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="K12">
-        <v>38.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>64.31</v>
       </c>
       <c r="D13">
         <v>1.5</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>96.465</v>
+        <v>96.465000000000003</v>
       </c>
       <c r="F13">
         <v>2.72</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="3"/>
-        <v>1.81333333333333</v>
+        <v>1.8133333333333335</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1764,29 +1165,29 @@
         <v>49.49</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>97.05</v>
       </c>
       <c r="D14">
         <v>0.8</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" si="2"/>
         <v>77.64</v>
       </c>
       <c r="F14">
         <v>1.77</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f t="shared" si="3"/>
-        <v>2.2125</v>
+        <v>2.2124999999999999</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1801,29 +1202,29 @@
         <v>79.55</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>30.58</v>
       </c>
       <c r="D15">
         <v>3.31</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>101.2198</v>
+        <v>101.21979999999999</v>
       </c>
       <c r="F15">
         <v>0.7</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <f t="shared" si="3"/>
-        <v>0.211480362537764</v>
+        <v>0.21148036253776434</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1838,27 +1239,27 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>56</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="F16">
         <v>0.95</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
@@ -1869,35 +1270,35 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <v>37.77</v>
+        <v>37.770000000000003</v>
       </c>
       <c r="K16">
-        <v>40.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
+        <v>40.119999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>104.95</v>
       </c>
       <c r="D17">
         <v>1.2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f t="shared" si="2"/>
         <v>125.94</v>
       </c>
       <c r="F17">
         <v>2.39</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f t="shared" si="3"/>
-        <v>1.99166666666667</v>
+        <v>1.9916666666666669</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1912,422 +1313,418 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
-        <v>44</v>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="3">
-        <v>34.21</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="2">
+        <v>156.5</v>
       </c>
       <c r="D18">
-        <v>1.21</v>
-      </c>
-      <c r="E18" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E18" s="3">
         <f t="shared" si="2"/>
-        <v>41.3941</v>
+        <v>106.42</v>
       </c>
       <c r="F18">
-        <v>0.52</v>
-      </c>
-      <c r="G18" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="3"/>
-        <v>0.429752066115702</v>
+        <v>0.33823529411764702</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18"/>
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>109.55</v>
+      </c>
       <c r="L18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
-        <v>46</v>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3">
-        <v>156.5</v>
+        <v>49</v>
+      </c>
+      <c r="C19" s="2">
+        <v>29.77</v>
       </c>
       <c r="D19">
-        <v>0.68</v>
-      </c>
-      <c r="E19" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="2"/>
-        <v>106.42</v>
+        <v>73.829599999999999</v>
       </c>
       <c r="F19">
-        <v>0.23</v>
-      </c>
-      <c r="G19" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" si="3"/>
-        <v>0.338235294117647</v>
+        <v>0.20967741935483872</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>9</v>
-      </c>
-      <c r="J19">
-        <v>109.55</v>
+        <v>7</v>
       </c>
       <c r="L19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
-        <v>48</v>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="3">
-        <v>29.77</v>
+        <v>51</v>
+      </c>
+      <c r="C20" s="5">
+        <v>77.5</v>
       </c>
       <c r="D20">
-        <v>2.48</v>
-      </c>
-      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" si="2"/>
-        <v>73.8296</v>
+        <v>77.5</v>
       </c>
       <c r="F20">
-        <v>0.52</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.209677419354839</v>
+        <v>0.66</v>
+      </c>
+      <c r="G20" s="4">
+        <f>F20/D20</f>
+        <v>0.66</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>7</v>
-      </c>
-      <c r="J20"/>
+        <v>8</v>
+      </c>
       <c r="L20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="7">
-        <v>77.5</v>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2">
+        <v>50.88</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="2"/>
-        <v>77.5</v>
+        <v>61.055999999999997</v>
       </c>
       <c r="F21">
-        <v>0.66</v>
-      </c>
-      <c r="G21" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="G21" s="4">
         <f>F21/D21</f>
-        <v>0.66</v>
+        <v>1.1333333333333335</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8</v>
-      </c>
-      <c r="J21"/>
+        <v>5</v>
+      </c>
       <c r="L21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="3">
-        <v>50.88</v>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="5">
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>1.2</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="2"/>
-        <v>61.056</v>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E22" s="3">
+        <f>C22*D22</f>
+        <v>126.9</v>
       </c>
       <c r="F22">
-        <v>1.36</v>
-      </c>
-      <c r="G22" s="5">
+        <v>1.49</v>
+      </c>
+      <c r="G22" s="4">
         <f>F22/D22</f>
-        <v>1.13333333333333</v>
+        <v>0.35224586288416071</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="9">
+        <v>21.24</v>
+      </c>
+      <c r="D23">
+        <v>3.52</v>
+      </c>
+      <c r="E23" s="3">
+        <f>C23*D23</f>
+        <v>74.764799999999994</v>
+      </c>
+      <c r="F23">
+        <v>1.04</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" ref="G23:G28" si="4">F23/D23</f>
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>1.17</v>
+      </c>
+      <c r="F24">
+        <v>0.7</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.59829059829059827</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>5</v>
-      </c>
-      <c r="J22"/>
-      <c r="L22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="7">
-        <v>30</v>
-      </c>
-      <c r="D23">
-        <v>4.23</v>
-      </c>
-      <c r="E23" s="4">
-        <f>C23*D23</f>
-        <v>126.9</v>
-      </c>
-      <c r="F23">
-        <v>1.49</v>
-      </c>
-      <c r="G23" s="5">
-        <f>F23/D23</f>
-        <v>0.352245862884161</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="11">
-        <v>21.24</v>
-      </c>
-      <c r="D24">
-        <v>3.52</v>
-      </c>
-      <c r="E24" s="4">
-        <f>C24*D24</f>
-        <v>74.7648</v>
-      </c>
-      <c r="F24">
-        <v>1.04</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" ref="G24:G29" si="4">F24/D24</f>
-        <v>0.295454545454545</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>8</v>
       </c>
       <c r="L24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>59</v>
+      <c r="M24" s="2">
+        <v>31.4983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>1.17</v>
+        <v>1.6</v>
       </c>
       <c r="F25">
-        <v>0.7</v>
-      </c>
-      <c r="G25" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="G25" s="4">
         <f t="shared" si="4"/>
-        <v>0.598290598290598</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="3">
-        <v>31.4983</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="M25" s="2">
+        <v>38.590800000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="5"/>
       <c r="D26">
-        <v>1.6</v>
+        <v>4.18</v>
       </c>
       <c r="F26">
-        <v>0.69</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="4"/>
-        <v>0.43125</v>
+        <v>0.88</v>
+      </c>
+      <c r="G26" s="4">
+        <f>F26/D26</f>
+        <v>0.2105263157894737</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L26" t="s">
         <v>43</v>
       </c>
-      <c r="M26" s="3">
-        <v>38.5908</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="7"/>
+      <c r="M26" s="2">
+        <v>24.983799999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="D27">
-        <v>4.18</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="F27">
-        <v>0.88</v>
-      </c>
-      <c r="G27" s="5">
-        <f>F27/D27</f>
-        <v>0.210526315789474</v>
+        <v>0.64</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="4"/>
+        <v>6.715634837355719E-2</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L27" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="3">
-        <v>24.9838</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28">
-        <v>9.53</v>
+        <v>4.05</v>
       </c>
       <c r="F28">
-        <v>0.64</v>
-      </c>
-      <c r="G28" s="5">
+        <v>1.26</v>
+      </c>
+      <c r="G28" s="4">
         <f t="shared" si="4"/>
-        <v>0.0671563483735572</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="2" t="s">
-        <v>66</v>
+      <c r="M28" s="2">
+        <v>105.012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>69</v>
+      </c>
       <c r="D29">
-        <v>4.05</v>
+        <v>0.72</v>
       </c>
       <c r="F29">
-        <v>1.26</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="4"/>
-        <v>0.311111111111111</v>
+        <v>0.48</v>
+      </c>
+      <c r="G29" s="4">
+        <f>F29/D29</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L29" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="3">
-        <v>105.012</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2" t="s">
-        <v>68</v>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>45</v>
+      </c>
+      <c r="C30" s="2">
+        <v>34.21</v>
       </c>
       <c r="D30">
-        <v>0.72</v>
+        <v>1.21</v>
+      </c>
+      <c r="E30" s="3">
+        <f>C30*D30</f>
+        <v>41.394100000000002</v>
       </c>
       <c r="F30">
-        <v>0.48</v>
-      </c>
-      <c r="G30" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="G30" s="4">
         <f>F30/D30</f>
-        <v>0.666666666666667</v>
+        <v>0.42975206611570249</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L30" t="s">
         <v>43</v>
@@ -2337,8 +1734,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>